--- a/assets/mp3/frankwolf/boxing/boxmaster.xlsx
+++ b/assets/mp3/frankwolf/boxing/boxmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\AndroidStudioProjects\trainertimer\assets\mp3\frankwolf\boxing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE655D-5981-4107-9525-A9507E09D2A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AB825-D377-4511-BE29-CA228158FB3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AF93F534-688A-45BC-90B5-98B1D3A57AE9}"/>
   </bookViews>
@@ -363,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +387,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -413,20 +420,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1352,814 +1363,814 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D01C4-45AA-492F-892B-65ED19A151AB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="A1:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="77.85546875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="53.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="77.85546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="str">
         <f xml:space="preserve"> "['', '0', '0', '0', 'mp3/frankwolf/boxing/t"&amp;C1&amp;"'],"</f>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t1'],</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A50" si="0" xml:space="preserve"> "['', '0', '0', '0', 'mp3/frankwolf/boxing/t"&amp;C2&amp;"'],"</f>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t2'],</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <f>C1+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="str">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t3'],</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C50" si="1">C2+1</f>
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="str">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t4'],</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t5'],</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="str">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t6'],</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="str">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t7'],</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="str">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t8'],</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="str">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t9'],</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="str">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t10'],</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="str">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t11'],</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="str">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t12'],</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="str">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t13'],</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="str">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t14'],</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="str">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t15'],</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="str">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t16'],</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="str">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t17'],</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="str">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t18'],</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="str">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t19'],</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="str">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t20'],</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="str">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t21'],</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="str">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t22'],</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="str">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t23'],</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="str">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t24'],</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="str">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t25'],</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="str">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t26'],</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="str">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t27'],</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="str">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t28'],</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="str">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t29'],</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="str">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t30'],</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="str">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t31'],</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t32'],</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t33'],</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="str">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t34'],</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="str">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t35'],</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="str">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t36'],</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="str">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t37'],</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="str">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t38'],</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="str">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t39'],</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="str">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t40'],</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="str">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t41'],</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="str">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t42'],</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="str">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t43'],</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="str">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t44'],</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="str">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t45'],</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="str">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t46'],</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="str">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t47'],</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="str">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t48'],</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="str">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t49'],</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="str">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>['', '0', '0', '0', 'mp3/frankwolf/boxing/t50'],</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="7" t="s">
         <v>108</v>
       </c>
     </row>
